--- a/data/output_data1.xlsx
+++ b/data/output_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Expected Utility of Schedule</t>
   </si>
@@ -22,6 +22,33 @@
     <t>Depth 1</t>
   </si>
   <si>
+    <t>Depth 2</t>
+  </si>
+  <si>
+    <t>Depth 3</t>
+  </si>
+  <si>
+    <t>Depth 4</t>
+  </si>
+  <si>
+    <t>Depth 5</t>
+  </si>
+  <si>
+    <t>Depth 6</t>
+  </si>
+  <si>
+    <t>Depth 7</t>
+  </si>
+  <si>
+    <t>Depth 8</t>
+  </si>
+  <si>
+    <t>Depth 9</t>
+  </si>
+  <si>
+    <t>Depth 10</t>
+  </si>
+  <si>
     <t>Schedule 1</t>
   </si>
   <si>
@@ -37,31 +64,129 @@
     <t>Schedule 5</t>
   </si>
   <si>
-    <t>Expected Utility: 0.22096544749376096</t>
-  </si>
-  <si>
-    <t>Expected Utility: -0.005388147312782443</t>
-  </si>
-  <si>
-    <t>Expected Utility: -0.0075</t>
-  </si>
-  <si>
-    <t>Expected Utility: -0.010258749401985795</t>
+    <t>Schedule 6</t>
+  </si>
+  <si>
+    <t>Schedule 7</t>
+  </si>
+  <si>
+    <t>Schedule 8</t>
+  </si>
+  <si>
+    <t>Schedule 9</t>
+  </si>
+  <si>
+    <t>Schedule 10</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.672838026867065</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.537180715615744</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.472116134447312</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.34296865663645</t>
+  </si>
+  <si>
+    <t>Expected Utility: 5.21822888677308</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
-    <t>(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Foremz ((MetallicElements 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag self ((Food 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Erewhon ((Housing 1)) EU: -0.010741984244762835</t>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16694641783498576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.21177845219545496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.19123637508547925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.17317034961701883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.23301633697674748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15717673840524415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.23068617360698002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.17143864612084866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.35438590142465265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.14293482076805233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2283793118709102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.15560497102119172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.18555646350906704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.09043820750088012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2260955187522011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.1415054725603718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.16802701706304377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz ((Electronics 1)) EU: -0.057523822012224654</t>
   </si>
 </sst>
 </file>
@@ -419,73 +544,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/output_data1.xlsx
+++ b/data/output_data1.xlsx
@@ -94,7 +94,7 @@
     <t>Expected Utility: 5.21822888677308</t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -102,11 +102,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -138,7 +138,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.35438590142465265</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.35438590142465265</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -154,7 +154,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
+(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -178,7 +178,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -186,7 +186,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Electronics 1)) EU: -0.057523822012224654</t>
+(TRANSFER self Foremz (Electronics 1)) EU: -0.057523822012224654</t>
   </si>
 </sst>
 </file>
